--- a/DWAVRPAProject/채용정보RPA.xlsx
+++ b/DWAVRPAProject/채용정보RPA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="180">
   <si>
     <t>기술컨설팅(RPA / 인공지능) &amp; 프로젝트PM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,15 +35,491 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>경력 1~4년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 송파구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)앱도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/12(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입·경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 광진구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/13(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/06(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이븐클라우드서비스(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터시각화, RPA 개발자, Azure 엔지니어 (신입/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력3년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/04(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국스코어링(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 4~15년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/19(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[경력]사무자동화(RPA) 영업대표(서울지역 또는 창원지역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이즈파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[이즈파크] RPA 엔지니어/PL/PM 경력직 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 금천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 2~14년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경포씨엔씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[(주)경포씨엔씨] RPA 개발자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)그리드원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/24(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)제인소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[정규직] Java / EAI / RPA 개발자 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 용인시 수지구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/18(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)에이핀테크놀러지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 구로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커리어커넥트(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직·계약직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/20(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[경력&amp;신입] RPA사업부 개발 및 구축 인재 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)위칸소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA, IT 경력자 모십니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직·기간제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/11(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)어반아이티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비바엔에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA 스크립트 개발 및 기술지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이너스커뮤니티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[이너스] RPA 담당자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 1~5년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주큐엠에스(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA 기술지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 2~4년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 1~20년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)하이퍼정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[벤처기업] RPA(사무자동화) 개발자 정규채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)풍산그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍산그룹 경력사원 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/02(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS오토모티브 2022년 신입/경력 공개채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)에이비씨마트코리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[에이비씨마트코리아] 각 부문 신입/경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 02/28(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)케이엠더블유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이수시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[LG그룹]RPA, 은행및금융IT, Front End, 모바일, 챗봇, MSA 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[정규직] RPA 개발자/PM 신입/경력 모집합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘에스오토모티브테크놀로지스(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 화성시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로계약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)두잇시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA(Robot Process Automation) 개발자(경력, 신입)채용(정규직)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입·경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상정보기술(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[신입/경력] RPA 개발 및 유지보수 인력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이테크시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM / PL / 개발자 채용 - RPA 개발 및 프로젝트 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜비즈테크파트너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 마포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력2년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직·계약직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/28(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)아임잇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA 부문 SM/SI 개발자 채용 (신입/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 금천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 04/22(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/05(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[경력] 사무자동화(RPA) 담당 인력 - PM/PRE-SALES(서울/창원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 4~15년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/25(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 성동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/05(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이든티앤에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA 업무자동화 스크립트 개발 &amp; 인공지능 필드 엔지니어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 3~10년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>~ 04/04(월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(주)휴먼플러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RPA 개발자 모집 ( C# 경력자 지원 가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경력 1~4년</t>
+    <t>(주) 에이핀테크놀러지 RPA 신규 경력직 채용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,23 +527,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘마감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 송파구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)앱도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/12(토)</t>
+    <t>경력4년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)그리드원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/24(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이크솔루션(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 종로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력2년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA 소프트웨어 개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 용산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이비소프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[EBSoft] RPA 개발 및 운영담당자 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디케이지앤씨(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 RPA 개발자 수시채용(신입/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/14(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이케이아이에스(주) 마포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애경그룹 AK아이에스 AI / RPA 운영 및 개발자 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사 포이텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA 개발, 유지보수 인력채용(경력사원-정규직/계약직/프리랜서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이븐클라우드서비스(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[메이븐] RPA 엔지니어(Power Platform) 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)한국인프라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA PM 및 개발자(신입/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 04/08(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정규직) RPA(업무자동화) 스크립트 개발자 모십니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/06(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정규직)RPA-OCR 솔루션 컨설팅 및 개발 경력자 모집 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력7년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/06(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 서대문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 안양시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 02/28(월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,7 +707,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내일마감</t>
+    <t>(주)하이로닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[코스닥상장사] (주)하이로닉 각 부문별 정규직 채용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,531 +719,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)두잇시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA(Robot Process Automation) 개발자(경력, 신입)채용(정규직)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입·경력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상정보기술(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[신입/경력] RPA 개발 및 유지보수 인력 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 광진구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대졸↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/13(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)이테크시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM / PL / 개발자 채용 - RPA 개발 및 프로젝트 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 중구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/06(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜비즈테크파트너스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 마포구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/28(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)아임잇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA 부문 SM/SI 개발자 채용 (신입/경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 04/22(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이븐클라우드서비스(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터시각화, RPA 개발자, Azure 엔지니어 (신입/경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 강남구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/05(토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)세정아이앤씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA 개발 및 운영 경력직 채용[서울 강남]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력3년↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/04(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국스코어링(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[경력] 사무자동화(RPA) 담당 인력 - PM/PRE-SALES(서울/창원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 영등포구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력 4~15년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/19(토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[경력]사무자동화(RPA) 영업대표(서울지역 또는 창원지역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/25(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)이즈파크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[이즈파크] RPA 엔지니어/PL/PM 경력직 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 금천구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력 2~14년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경포씨엔씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[(주)경포씨엔씨] RPA 개발자 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 성동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)이든티앤에스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 02/25(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 서초구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)그리드원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA 업무자동화 스크립트 개발 &amp; 인공지능 필드 엔지니어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/24(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)제인소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[정규직] Java / EAI / RPA 개발자 모집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기 용인시 수지구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력 3~10년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)휴먼플러스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고졸↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/18(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)에이핀테크놀러지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주) 에이핀테크놀러지 RPA 신규 경력직 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 구로구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커리어커넥트(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력4년↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직·계약직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/20(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이크솔루션(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[경력&amp;신입] RPA사업부 개발 및 구축 인재 모집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)엔젠아이티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA 및 RPA - 신입 정규/계약직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)위칸소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, IT 경력자 모십니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 종로구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력2년↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직·기간제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/11(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)어반아이티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA 소프트웨어 개발자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상시채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비바엔에스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA 스크립트 개발 및 기술지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)이비소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[EBSoft] RPA 개발 및 운영담당자 모집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디케이지앤씨(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022 RPA 개발자 수시채용(신입/경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/14(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이케이아이에스(주) 마포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애경그룹 AK아이에스 AI / RPA 운영 및 개발자 모집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식회사 포이텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA 개발, 유지보수 인력채용(경력사원-정규직/계약직/프리랜서)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 강동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)이너스커뮤니티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[이너스] RPA 담당자 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력 1~5년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아주큐엠에스(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA 기술지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력 2~4년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[메이븐] RPA 엔지니어(Power Platform) 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력 1~20년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)한국인프라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA PM 및 개발자(신입/경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 04/08(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)하이퍼정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(정규직) RPA(업무자동화) 스크립트 개발자 모십니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[벤처기업] RPA(사무자동화) 개발자 정규채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산 동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(정규직)RPA-OCR 솔루션 컨설팅 및 개발 경력자 모집 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력7년↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)풍산그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍산그룹 경력사원 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/02(수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LS오토모티브 2022년 신입/경력 공개채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기 안양시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)에이비씨마트코리아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[에이비씨마트코리아] 각 부문 신입/경력 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 02/28(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)케이엠더블유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)하이로닉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[코스닥상장사] (주)하이로닉 각 부문별 정규직 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)이수시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용공고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[LG그룹]RPA, 은행및금융IT, Front End, 모바일, 챗봇, MSA 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[정규직] RPA 개발자/PM 신입/경력 모집합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 용산구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 서대문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘에스오토모티브테크놀로지스(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기 화성시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근로계약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청기간</t>
+    <t>대한상공회의소 광주인력개발원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년도 취업연계 국비 전문 기술교육생 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주 광산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)동화엔텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산보안팀 서버 개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,945 +1091,945 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
         <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="s">
         <v>112</v>
       </c>
-      <c r="B32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G41" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
